--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H2">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I2">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J2">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.233575666666667</v>
+        <v>0.8194946666666666</v>
       </c>
       <c r="N2">
-        <v>12.700727</v>
+        <v>2.458484</v>
       </c>
       <c r="O2">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="P2">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="Q2">
-        <v>39.35137934957955</v>
+        <v>2.489233352047556</v>
       </c>
       <c r="R2">
-        <v>354.162414146216</v>
+        <v>22.403100168428</v>
       </c>
       <c r="S2">
-        <v>0.134084454590199</v>
+        <v>0.01690937864649592</v>
       </c>
       <c r="T2">
-        <v>0.1340844545901989</v>
+        <v>0.01690937864649593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H3">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I3">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J3">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.81695</v>
       </c>
       <c r="O3">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="P3">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="Q3">
-        <v>33.51476674173333</v>
+        <v>10.95224240118333</v>
       </c>
       <c r="R3">
-        <v>301.6329006756</v>
+        <v>98.57018161065</v>
       </c>
       <c r="S3">
-        <v>0.1141969936901606</v>
+        <v>0.07439865516725513</v>
       </c>
       <c r="T3">
-        <v>0.1141969936901606</v>
+        <v>0.07439865516725513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H4">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I4">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J4">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>1.162819</v>
       </c>
       <c r="N4">
-        <v>3.488456999999999</v>
+        <v>3.488457</v>
       </c>
       <c r="O4">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="P4">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="Q4">
-        <v>10.80848322711733</v>
+        <v>3.532088682124334</v>
       </c>
       <c r="R4">
-        <v>97.27634904405598</v>
+        <v>31.788798139119</v>
       </c>
       <c r="S4">
-        <v>0.03682843149107619</v>
+        <v>0.02399350181047314</v>
       </c>
       <c r="T4">
-        <v>0.03682843149107618</v>
+        <v>0.02399350181047314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.764247</v>
       </c>
       <c r="I5">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J5">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.233575666666667</v>
+        <v>0.8194946666666666</v>
       </c>
       <c r="N5">
-        <v>12.700727</v>
+        <v>2.458484</v>
       </c>
       <c r="O5">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="P5">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="Q5">
-        <v>36.35829638972989</v>
+        <v>7.037887669060887</v>
       </c>
       <c r="R5">
-        <v>327.224667507569</v>
+        <v>63.34098902154799</v>
       </c>
       <c r="S5">
-        <v>0.1238859328903758</v>
+        <v>0.04780841754742068</v>
       </c>
       <c r="T5">
-        <v>0.1238859328903757</v>
+        <v>0.04780841754742068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.764247</v>
       </c>
       <c r="I6">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J6">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.81695</v>
       </c>
       <c r="O6">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="P6">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="Q6">
         <v>30.96561906518333</v>
@@ -818,10 +818,10 @@
         <v>278.6905715866499</v>
       </c>
       <c r="S6">
-        <v>0.1055111208813913</v>
+        <v>0.2103496553931496</v>
       </c>
       <c r="T6">
-        <v>0.1055111208813913</v>
+        <v>0.2103496553931496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.764247</v>
       </c>
       <c r="I7">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J7">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>1.162819</v>
       </c>
       <c r="N7">
-        <v>3.488456999999999</v>
+        <v>3.488457</v>
       </c>
       <c r="O7">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="P7">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="Q7">
-        <v>9.98638531076433</v>
+        <v>9.986385310764332</v>
       </c>
       <c r="R7">
-        <v>89.87746779687897</v>
+        <v>89.87746779687899</v>
       </c>
       <c r="S7">
-        <v>0.03402724503825345</v>
+        <v>0.06783758155522773</v>
       </c>
       <c r="T7">
-        <v>0.03402724503825344</v>
+        <v>0.06783758155522773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>44.155672</v>
       </c>
       <c r="I8">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J8">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.233575666666667</v>
+        <v>0.8194946666666666</v>
       </c>
       <c r="N8">
-        <v>12.700727</v>
+        <v>2.458484</v>
       </c>
       <c r="O8">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="P8">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="Q8">
-        <v>62.31212617483822</v>
+        <v>12.06177923569422</v>
       </c>
       <c r="R8">
-        <v>560.8091355735439</v>
+        <v>108.556013121248</v>
       </c>
       <c r="S8">
-        <v>0.2123200657920041</v>
+        <v>0.08193574623248071</v>
       </c>
       <c r="T8">
-        <v>0.2123200657920041</v>
+        <v>0.08193574623248071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>44.155672</v>
       </c>
       <c r="I9">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J9">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>10.81695</v>
       </c>
       <c r="O9">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="P9">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="Q9">
-        <v>53.06996624893332</v>
+        <v>53.06996624893333</v>
       </c>
       <c r="R9">
         <v>477.6296962403999</v>
       </c>
       <c r="S9">
-        <v>0.1808286671832894</v>
+        <v>0.3605046322080731</v>
       </c>
       <c r="T9">
-        <v>0.1808286671832894</v>
+        <v>0.3605046322080729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>44.155672</v>
       </c>
       <c r="I10">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J10">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>1.162819</v>
       </c>
       <c r="N10">
-        <v>3.488456999999999</v>
+        <v>3.488457</v>
       </c>
       <c r="O10">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="P10">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="Q10">
-        <v>17.11501811978933</v>
+        <v>17.11501811978934</v>
       </c>
       <c r="R10">
-        <v>154.0351630781039</v>
+        <v>154.035163078104</v>
       </c>
       <c r="S10">
-        <v>0.05831708844325031</v>
+        <v>0.1162624314394241</v>
       </c>
       <c r="T10">
-        <v>0.0583170884432503</v>
+        <v>0.116262431439424</v>
       </c>
     </row>
   </sheetData>
